--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Artn-Gfra1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Artn-Gfra1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>Gfra1</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,7 +525,7 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -537,40 +540,40 @@
         <v>3.896708</v>
       </c>
       <c r="I2">
-        <v>0.7196693520699016</v>
+        <v>0.7964389134426562</v>
       </c>
       <c r="J2">
-        <v>0.7196693520699017</v>
+        <v>0.7964389134426563</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>8.922308333333334</v>
+        <v>0.048574</v>
       </c>
       <c r="N2">
-        <v>26.766925</v>
+        <v>0.145722</v>
       </c>
       <c r="O2">
-        <v>0.6138261687668722</v>
+        <v>0.003596689925699211</v>
       </c>
       <c r="P2">
-        <v>0.6138261687668722</v>
+        <v>0.003596689925699211</v>
       </c>
       <c r="Q2">
-        <v>11.58921008698889</v>
+        <v>0.06309289813066667</v>
       </c>
       <c r="R2">
-        <v>104.3028907829</v>
+        <v>0.567836083176</v>
       </c>
       <c r="S2">
-        <v>0.441751881160005</v>
+        <v>0.002864543816414027</v>
       </c>
       <c r="T2">
-        <v>0.4417518811600051</v>
+        <v>0.002864543816414028</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,7 +587,7 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -599,10 +602,10 @@
         <v>3.896708</v>
       </c>
       <c r="I3">
-        <v>0.7196693520699016</v>
+        <v>0.7964389134426562</v>
       </c>
       <c r="J3">
-        <v>0.7196693520699017</v>
+        <v>0.7964389134426563</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -611,33 +614,33 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.613253666666666</v>
+        <v>8.922308333333334</v>
       </c>
       <c r="N3">
-        <v>16.839761</v>
+        <v>26.766925</v>
       </c>
       <c r="O3">
-        <v>0.3861738312331279</v>
+        <v>0.6606574812962104</v>
       </c>
       <c r="P3">
-        <v>0.3861738312331279</v>
+        <v>0.6606574812962104</v>
       </c>
       <c r="Q3">
-        <v>7.291070156309778</v>
+        <v>11.58921008698889</v>
       </c>
       <c r="R3">
-        <v>65.619631406788</v>
+        <v>104.3028907829</v>
       </c>
       <c r="S3">
-        <v>0.2779174709098967</v>
+        <v>0.5261733265613158</v>
       </c>
       <c r="T3">
-        <v>0.2779174709098967</v>
+        <v>0.5261733265613158</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
@@ -646,7 +649,7 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -655,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.5059576666666666</v>
+        <v>1.298902666666667</v>
       </c>
       <c r="H4">
-        <v>1.517873</v>
+        <v>3.896708</v>
       </c>
       <c r="I4">
-        <v>0.2803306479300983</v>
+        <v>0.7964389134426562</v>
       </c>
       <c r="J4">
-        <v>0.2803306479300983</v>
+        <v>0.7964389134426563</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -673,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.922308333333334</v>
+        <v>4.534313</v>
       </c>
       <c r="N4">
-        <v>26.766925</v>
+        <v>13.602939</v>
       </c>
       <c r="O4">
-        <v>0.6138261687668722</v>
+        <v>0.3357458287780905</v>
       </c>
       <c r="P4">
-        <v>0.6138261687668722</v>
+        <v>0.3357458287780905</v>
       </c>
       <c r="Q4">
-        <v>4.514310305613889</v>
+        <v>5.889631247201334</v>
       </c>
       <c r="R4">
-        <v>40.62879275052499</v>
+        <v>53.00668122481201</v>
       </c>
       <c r="S4">
-        <v>0.1720742876068672</v>
+        <v>0.2674010430649265</v>
       </c>
       <c r="T4">
-        <v>0.1720742876068672</v>
+        <v>0.2674010430649265</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,55 +711,179 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.3319853333333333</v>
+      </c>
+      <c r="H5">
+        <v>0.995956</v>
+      </c>
+      <c r="I5">
+        <v>0.2035610865573438</v>
+      </c>
+      <c r="J5">
+        <v>0.2035610865573438</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.048574</v>
+      </c>
+      <c r="N5">
+        <v>0.145722</v>
+      </c>
+      <c r="O5">
+        <v>0.003596689925699211</v>
+      </c>
+      <c r="P5">
+        <v>0.003596689925699211</v>
+      </c>
+      <c r="Q5">
+        <v>0.01612585558133333</v>
+      </c>
+      <c r="R5">
+        <v>0.145132700232</v>
+      </c>
+      <c r="S5">
+        <v>0.0007321461092851835</v>
+      </c>
+      <c r="T5">
+        <v>0.0007321461092851836</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="E5">
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.3319853333333333</v>
+      </c>
+      <c r="H6">
+        <v>0.995956</v>
+      </c>
+      <c r="I6">
+        <v>0.2035610865573438</v>
+      </c>
+      <c r="J6">
+        <v>0.2035610865573438</v>
+      </c>
+      <c r="K6">
         <v>3</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.5059576666666666</v>
-      </c>
-      <c r="H5">
-        <v>1.517873</v>
-      </c>
-      <c r="I5">
-        <v>0.2803306479300983</v>
-      </c>
-      <c r="J5">
-        <v>0.2803306479300983</v>
-      </c>
-      <c r="K5">
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>8.922308333333334</v>
+      </c>
+      <c r="N6">
+        <v>26.766925</v>
+      </c>
+      <c r="O6">
+        <v>0.6606574812962104</v>
+      </c>
+      <c r="P6">
+        <v>0.6606574812962104</v>
+      </c>
+      <c r="Q6">
+        <v>2.962075506144444</v>
+      </c>
+      <c r="R6">
+        <v>26.6586795553</v>
+      </c>
+      <c r="S6">
+        <v>0.1344841547348946</v>
+      </c>
+      <c r="T6">
+        <v>0.1344841547348946</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.3319853333333333</v>
+      </c>
+      <c r="H7">
+        <v>0.995956</v>
+      </c>
+      <c r="I7">
+        <v>0.2035610865573438</v>
+      </c>
+      <c r="J7">
+        <v>0.2035610865573438</v>
+      </c>
+      <c r="K7">
         <v>3</v>
       </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>5.613253666666666</v>
-      </c>
-      <c r="N5">
-        <v>16.839761</v>
-      </c>
-      <c r="O5">
-        <v>0.3861738312331279</v>
-      </c>
-      <c r="P5">
-        <v>0.3861738312331279</v>
-      </c>
-      <c r="Q5">
-        <v>2.840068727594777</v>
-      </c>
-      <c r="R5">
-        <v>25.56061854835299</v>
-      </c>
-      <c r="S5">
-        <v>0.1082563603232312</v>
-      </c>
-      <c r="T5">
-        <v>0.1082563603232312</v>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>4.534313</v>
+      </c>
+      <c r="N7">
+        <v>13.602939</v>
+      </c>
+      <c r="O7">
+        <v>0.3357458287780905</v>
+      </c>
+      <c r="P7">
+        <v>0.3357458287780905</v>
+      </c>
+      <c r="Q7">
+        <v>1.505325412742667</v>
+      </c>
+      <c r="R7">
+        <v>13.547928714684</v>
+      </c>
+      <c r="S7">
+        <v>0.06834478571316401</v>
+      </c>
+      <c r="T7">
+        <v>0.06834478571316402</v>
       </c>
     </row>
   </sheetData>
